--- a/排阵/对阵表.xlsx
+++ b/排阵/对阵表.xlsx
@@ -550,14 +550,14 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>崔倩男/唐英武</t>
+          <t>谢卓珊/高洁</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr"/>
       <c r="F4" s="4" t="inlineStr"/>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t>谢卓珊/高洁</t>
+          <t>崔倩男/唐英武</t>
         </is>
       </c>
     </row>
@@ -577,14 +577,14 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>卢志辉/江锐</t>
+          <t>王小波/陈顺星</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr"/>
       <c r="F5" s="4" t="inlineStr"/>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>严勇文/罗蒙</t>
+          <t>严勇文/江锐</t>
         </is>
       </c>
     </row>
@@ -604,14 +604,14 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>陈小洪/罗琴荩</t>
+          <t>罗蒙/罗琴荩</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr"/>
       <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t>王小波/林锋</t>
+          <t>陈小洪/卢志辉</t>
         </is>
       </c>
     </row>
@@ -631,14 +631,14 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>李祺祺/高洁</t>
+          <t>李祺祺/唐英武</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr"/>
       <c r="F7" s="4" t="inlineStr"/>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t>崔倩男/谢卓珊</t>
+          <t>崔倩男/高洁</t>
         </is>
       </c>
     </row>
@@ -658,14 +658,14 @@
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>陈小洪/卢志辉</t>
+          <t>林锋/陈顺星</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr"/>
       <c r="F8" s="4" t="inlineStr"/>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t>严勇文/陈顺星</t>
+          <t>严勇文/罗琴荩</t>
         </is>
       </c>
     </row>
@@ -685,14 +685,14 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>王小波/罗琴荩</t>
+          <t>罗蒙/陈小洪</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr"/>
       <c r="F9" s="4" t="inlineStr"/>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t>罗蒙/江锐</t>
+          <t>卢志辉/江锐</t>
         </is>
       </c>
     </row>
@@ -712,14 +712,14 @@
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>李祺祺/谢卓珊</t>
+          <t>李祺祺/崔倩男</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr"/>
       <c r="F10" s="4" t="inlineStr"/>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t>崔倩男/唐英武</t>
+          <t>谢卓珊/高洁</t>
         </is>
       </c>
     </row>
@@ -739,14 +739,14 @@
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>林锋/卢志辉</t>
+          <t>严勇文/陈小洪</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr"/>
       <c r="F11" s="4" t="inlineStr"/>
       <c r="G11" s="4" t="inlineStr">
         <is>
-          <t>严勇文/陈顺星</t>
+          <t>王小波/林锋</t>
         </is>
       </c>
     </row>
@@ -766,14 +766,14 @@
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>罗琴荩/江锐</t>
+          <t>卢志辉/罗琴荩</t>
         </is>
       </c>
       <c r="E12" s="4" t="inlineStr"/>
       <c r="F12" s="4" t="inlineStr"/>
       <c r="G12" s="4" t="inlineStr">
         <is>
-          <t>王小波/陈小洪</t>
+          <t>罗蒙/江锐</t>
         </is>
       </c>
     </row>
@@ -793,14 +793,14 @@
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>崔倩男/唐英武</t>
+          <t>李祺祺/崔倩男</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr"/>
       <c r="F13" s="4" t="inlineStr"/>
       <c r="G13" s="4" t="inlineStr">
         <is>
-          <t>李祺祺/高洁</t>
+          <t>谢卓珊/唐英武</t>
         </is>
       </c>
     </row>
@@ -820,14 +820,14 @@
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>罗蒙/陈顺星</t>
+          <t>林锋/陈顺星</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr"/>
       <c r="F14" s="4" t="inlineStr"/>
       <c r="G14" s="4" t="inlineStr">
         <is>
-          <t>林锋/罗琴荩</t>
+          <t>王小波/罗蒙</t>
         </is>
       </c>
     </row>
@@ -847,14 +847,14 @@
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>王小波/陈小洪</t>
+          <t>卢志辉/江锐</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr"/>
       <c r="F15" s="4" t="inlineStr"/>
       <c r="G15" s="4" t="inlineStr">
         <is>
-          <t>卢志辉/江锐</t>
+          <t>陈小洪/罗琴荩</t>
         </is>
       </c>
     </row>
@@ -874,14 +874,14 @@
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>李祺祺/高洁</t>
+          <t>谢卓珊/高洁</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr"/>
       <c r="F16" s="4" t="inlineStr"/>
       <c r="G16" s="4" t="inlineStr">
         <is>
-          <t>谢卓珊/唐英武</t>
+          <t>李祺祺/唐英武</t>
         </is>
       </c>
     </row>
@@ -901,14 +901,14 @@
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>罗蒙/林锋</t>
+          <t>王小波/林锋</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr"/>
       <c r="F17" s="4" t="inlineStr"/>
       <c r="G17" s="4" t="inlineStr">
         <is>
-          <t>陈顺星/陈小洪</t>
+          <t>陈顺星/罗琴荩</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       <c r="F18" s="4" t="inlineStr"/>
       <c r="G18" s="4" t="inlineStr">
         <is>
-          <t>王小波/罗琴荩</t>
+          <t>罗蒙/陈小洪</t>
         </is>
       </c>
     </row>
@@ -955,14 +955,14 @@
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>谢卓珊/唐英武</t>
+          <t>唐英武/高洁</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr"/>
       <c r="F19" s="4" t="inlineStr"/>
       <c r="G19" s="4" t="inlineStr">
         <is>
-          <t>李祺祺/高洁</t>
+          <t>李祺祺/谢卓珊</t>
         </is>
       </c>
     </row>
@@ -982,14 +982,14 @@
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>罗蒙/卢志辉</t>
+          <t>王小波/林锋</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr"/>
       <c r="F20" s="4" t="inlineStr"/>
       <c r="G20" s="4" t="inlineStr">
         <is>
-          <t>林锋/陈顺星</t>
+          <t>陈顺星/卢志辉</t>
         </is>
       </c>
     </row>
@@ -1009,14 +1009,14 @@
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>王小波/陈小洪</t>
+          <t>陈小洪/罗琴荩</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr"/>
       <c r="F21" s="4" t="inlineStr"/>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>罗琴荩/江锐</t>
+          <t>罗蒙/江锐</t>
         </is>
       </c>
     </row>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="B7" s="7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7" t="n">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" s="7" t="n">
         <v>0</v>

--- a/排阵/对阵表.xlsx
+++ b/排阵/对阵表.xlsx
@@ -550,7 +550,7 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>谢卓珊/高洁</t>
+          <t>李祺祺/林小连</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr"/>
@@ -572,19 +572,19 @@
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>男双</t>
+          <t>混双</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>王小波/陈顺星</t>
+          <t>王小波/谢卓珊</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr"/>
       <c r="F5" s="4" t="inlineStr"/>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>严勇文/江锐</t>
+          <t>罗琴荩/高洁</t>
         </is>
       </c>
     </row>
@@ -604,14 +604,14 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>罗蒙/罗琴荩</t>
+          <t>严勇文/林锋</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr"/>
       <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t>陈小洪/卢志辉</t>
+          <t>陈顺星/江锐</t>
         </is>
       </c>
     </row>
@@ -631,14 +631,14 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>李祺祺/唐英武</t>
+          <t>崔倩男/林小连</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr"/>
       <c r="F7" s="4" t="inlineStr"/>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t>崔倩男/高洁</t>
+          <t>李祺祺/唐英武</t>
         </is>
       </c>
     </row>
@@ -653,19 +653,19 @@
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>男双</t>
+          <t>混双</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>林锋/陈顺星</t>
+          <t>王小波/谢卓珊</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr"/>
       <c r="F8" s="4" t="inlineStr"/>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t>严勇文/罗琴荩</t>
+          <t>陈顺星/高洁</t>
         </is>
       </c>
     </row>
@@ -685,14 +685,14 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>罗蒙/陈小洪</t>
+          <t>严勇文/陈小洪</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr"/>
       <c r="F9" s="4" t="inlineStr"/>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t>卢志辉/江锐</t>
+          <t>罗蒙/卢志辉</t>
         </is>
       </c>
     </row>
@@ -712,14 +712,14 @@
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>李祺祺/崔倩男</t>
+          <t>唐英武/高洁</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr"/>
       <c r="F10" s="4" t="inlineStr"/>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t>谢卓珊/高洁</t>
+          <t>李祺祺/崔倩男</t>
         </is>
       </c>
     </row>
@@ -739,14 +739,14 @@
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>严勇文/陈小洪</t>
+          <t>严勇文/江锐</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr"/>
       <c r="F11" s="4" t="inlineStr"/>
       <c r="G11" s="4" t="inlineStr">
         <is>
-          <t>王小波/林锋</t>
+          <t>罗蒙/罗琴荩</t>
         </is>
       </c>
     </row>
@@ -766,14 +766,14 @@
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>卢志辉/罗琴荩</t>
+          <t>王小波/陈小洪</t>
         </is>
       </c>
       <c r="E12" s="4" t="inlineStr"/>
       <c r="F12" s="4" t="inlineStr"/>
       <c r="G12" s="4" t="inlineStr">
         <is>
-          <t>罗蒙/江锐</t>
+          <t>林锋/卢志辉</t>
         </is>
       </c>
     </row>
@@ -793,14 +793,14 @@
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>李祺祺/崔倩男</t>
+          <t>谢卓珊/林小连</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr"/>
       <c r="F13" s="4" t="inlineStr"/>
       <c r="G13" s="4" t="inlineStr">
         <is>
-          <t>谢卓珊/唐英武</t>
+          <t>李祺祺/崔倩男</t>
         </is>
       </c>
     </row>
@@ -815,19 +815,19 @@
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>男双</t>
+          <t>混双</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>林锋/陈顺星</t>
+          <t>林锋/唐英武</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr"/>
       <c r="F14" s="4" t="inlineStr"/>
       <c r="G14" s="4" t="inlineStr">
         <is>
-          <t>王小波/罗蒙</t>
+          <t>陈顺星/高洁</t>
         </is>
       </c>
     </row>
@@ -874,14 +874,14 @@
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>谢卓珊/高洁</t>
+          <t>李祺祺/林小连</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr"/>
       <c r="F16" s="4" t="inlineStr"/>
       <c r="G16" s="4" t="inlineStr">
         <is>
-          <t>李祺祺/唐英武</t>
+          <t>谢卓珊/唐英武</t>
         </is>
       </c>
     </row>
@@ -901,14 +901,14 @@
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>王小波/林锋</t>
+          <t>林锋/陈顺星</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr"/>
       <c r="F17" s="4" t="inlineStr"/>
       <c r="G17" s="4" t="inlineStr">
         <is>
-          <t>陈顺星/罗琴荩</t>
+          <t>罗蒙/陈小洪</t>
         </is>
       </c>
     </row>
@@ -928,14 +928,14 @@
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>卢志辉/江锐</t>
+          <t>王小波/罗琴荩</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr"/>
       <c r="F18" s="4" t="inlineStr"/>
       <c r="G18" s="4" t="inlineStr">
         <is>
-          <t>罗蒙/陈小洪</t>
+          <t>卢志辉/江锐</t>
         </is>
       </c>
     </row>
@@ -955,14 +955,14 @@
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>唐英武/高洁</t>
+          <t>谢卓珊/高洁</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr"/>
       <c r="F19" s="4" t="inlineStr"/>
       <c r="G19" s="4" t="inlineStr">
         <is>
-          <t>李祺祺/谢卓珊</t>
+          <t>李祺祺/林小连</t>
         </is>
       </c>
     </row>
@@ -982,14 +982,14 @@
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>王小波/林锋</t>
+          <t>林锋/陈小洪</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr"/>
       <c r="F20" s="4" t="inlineStr"/>
       <c r="G20" s="4" t="inlineStr">
         <is>
-          <t>陈顺星/卢志辉</t>
+          <t>罗蒙/卢志辉</t>
         </is>
       </c>
     </row>
@@ -1009,14 +1009,14 @@
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>陈小洪/罗琴荩</t>
+          <t>王小波/江锐</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr"/>
       <c r="F21" s="4" t="inlineStr"/>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>罗蒙/江锐</t>
+          <t>陈顺星/罗琴荩</t>
         </is>
       </c>
     </row>
@@ -1036,7 +1036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="B4" s="7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B6" s="7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7" t="n">
         <v>0</v>
@@ -1171,13 +1171,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1187,16 +1187,16 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1206,10 +1206,10 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" s="7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D9" s="7" t="n">
         <v>0</v>
@@ -1225,10 +1225,10 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7" t="n">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="D12" s="7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1301,13 +1301,13 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" s="7" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E14" s="7" t="n">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>谢卓珊</t>
+          <t>林小连</t>
         </is>
       </c>
       <c r="B15" s="7" t="n">
@@ -1335,20 +1335,39 @@
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
+          <t>谢卓珊</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
           <t>高洁</t>
         </is>
       </c>
-      <c r="B16" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E16" s="7" t="n">
-        <v>0</v>
+      <c r="B17" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/排阵/对阵表.xlsx
+++ b/排阵/对阵表.xlsx
@@ -550,7 +550,7 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>李祺祺/林小连</t>
+          <t>李祺祺/高洁</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr"/>
@@ -572,19 +572,19 @@
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>混双</t>
+          <t>男双</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>王小波/谢卓珊</t>
+          <t>王小波/陈小洪</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr"/>
       <c r="F5" s="4" t="inlineStr"/>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>罗琴荩/高洁</t>
+          <t>严勇文/陈顺星</t>
         </is>
       </c>
     </row>
@@ -604,14 +604,14 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>严勇文/林锋</t>
+          <t>林锋/罗琴荩</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr"/>
       <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t>陈顺星/江锐</t>
+          <t>卢志辉/江锐</t>
         </is>
       </c>
     </row>
@@ -631,14 +631,14 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>崔倩男/林小连</t>
+          <t>崔倩男/谢卓珊</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr"/>
       <c r="F7" s="4" t="inlineStr"/>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t>李祺祺/唐英武</t>
+          <t>唐英武/林小连</t>
         </is>
       </c>
     </row>
@@ -658,7 +658,7 @@
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>王小波/谢卓珊</t>
+          <t>林锋/李祺祺</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr"/>
@@ -685,14 +685,14 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>严勇文/陈小洪</t>
+          <t>严勇文/王小波</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr"/>
       <c r="F9" s="4" t="inlineStr"/>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t>罗蒙/卢志辉</t>
+          <t>罗蒙/罗琴荩</t>
         </is>
       </c>
     </row>
@@ -712,14 +712,14 @@
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>唐英武/高洁</t>
+          <t>崔倩男/唐英武</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr"/>
       <c r="F10" s="4" t="inlineStr"/>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t>李祺祺/崔倩男</t>
+          <t>谢卓珊/林小连</t>
         </is>
       </c>
     </row>
@@ -734,19 +734,19 @@
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>男双</t>
+          <t>混双</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>严勇文/江锐</t>
+          <t>王小波/李祺祺</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr"/>
       <c r="F11" s="4" t="inlineStr"/>
       <c r="G11" s="4" t="inlineStr">
         <is>
-          <t>罗蒙/罗琴荩</t>
+          <t>罗琴荩/高洁</t>
         </is>
       </c>
     </row>
@@ -766,14 +766,14 @@
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>王小波/陈小洪</t>
+          <t>卢志辉/江锐</t>
         </is>
       </c>
       <c r="E12" s="4" t="inlineStr"/>
       <c r="F12" s="4" t="inlineStr"/>
       <c r="G12" s="4" t="inlineStr">
         <is>
-          <t>林锋/卢志辉</t>
+          <t>严勇文/陈小洪</t>
         </is>
       </c>
     </row>
@@ -793,14 +793,14 @@
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>谢卓珊/林小连</t>
+          <t>高洁/林小连</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr"/>
       <c r="F13" s="4" t="inlineStr"/>
       <c r="G13" s="4" t="inlineStr">
         <is>
-          <t>李祺祺/崔倩男</t>
+          <t>崔倩男/谢卓珊</t>
         </is>
       </c>
     </row>
@@ -820,14 +820,14 @@
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>林锋/唐英武</t>
+          <t>林锋/李祺祺</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr"/>
       <c r="F14" s="4" t="inlineStr"/>
       <c r="G14" s="4" t="inlineStr">
         <is>
-          <t>陈顺星/高洁</t>
+          <t>陈顺星/唐英武</t>
         </is>
       </c>
     </row>
@@ -847,14 +847,14 @@
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>卢志辉/江锐</t>
+          <t>陈小洪/卢志辉</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr"/>
       <c r="F15" s="4" t="inlineStr"/>
       <c r="G15" s="4" t="inlineStr">
         <is>
-          <t>陈小洪/罗琴荩</t>
+          <t>罗蒙/江锐</t>
         </is>
       </c>
     </row>
@@ -874,14 +874,14 @@
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>李祺祺/林小连</t>
+          <t>谢卓珊/高洁</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr"/>
       <c r="F16" s="4" t="inlineStr"/>
       <c r="G16" s="4" t="inlineStr">
         <is>
-          <t>谢卓珊/唐英武</t>
+          <t>李祺祺/林小连</t>
         </is>
       </c>
     </row>
@@ -901,14 +901,14 @@
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>林锋/陈顺星</t>
+          <t>林锋/江锐</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr"/>
       <c r="F17" s="4" t="inlineStr"/>
       <c r="G17" s="4" t="inlineStr">
         <is>
-          <t>罗蒙/陈小洪</t>
+          <t>罗蒙/陈顺星</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       <c r="F18" s="4" t="inlineStr"/>
       <c r="G18" s="4" t="inlineStr">
         <is>
-          <t>卢志辉/江锐</t>
+          <t>陈小洪/卢志辉</t>
         </is>
       </c>
     </row>
@@ -955,14 +955,14 @@
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>谢卓珊/高洁</t>
+          <t>高洁/林小连</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr"/>
       <c r="F19" s="4" t="inlineStr"/>
       <c r="G19" s="4" t="inlineStr">
         <is>
-          <t>李祺祺/林小连</t>
+          <t>谢卓珊/唐英武</t>
         </is>
       </c>
     </row>
@@ -982,14 +982,14 @@
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>林锋/陈小洪</t>
+          <t>罗蒙/陈顺星</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr"/>
       <c r="F20" s="4" t="inlineStr"/>
       <c r="G20" s="4" t="inlineStr">
         <is>
-          <t>罗蒙/卢志辉</t>
+          <t>王小波/卢志辉</t>
         </is>
       </c>
     </row>
@@ -1009,14 +1009,14 @@
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>王小波/江锐</t>
+          <t>陈小洪/江锐</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr"/>
       <c r="F21" s="4" t="inlineStr"/>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>陈顺星/罗琴荩</t>
+          <t>林锋/罗琴荩</t>
         </is>
       </c>
     </row>
@@ -1133,13 +1133,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1171,13 +1171,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1301,16 +1301,16 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="7" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="D16" s="7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E16" s="7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1358,16 +1358,16 @@
         </is>
       </c>
       <c r="B17" s="7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" s="7" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" s="7" t="n">
         <v>2</v>
-      </c>
-      <c r="E17" s="7" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/排阵/对阵表.xlsx
+++ b/排阵/对阵表.xlsx
@@ -577,14 +577,14 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>王小波/陈小洪</t>
+          <t>严勇文/江锐</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr"/>
       <c r="F5" s="4" t="inlineStr"/>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>严勇文/陈顺星</t>
+          <t>王小波/程建兴</t>
         </is>
       </c>
     </row>
@@ -604,14 +604,14 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>林锋/罗琴荩</t>
+          <t>陈小洪/张欣欣</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr"/>
       <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t>卢志辉/江锐</t>
+          <t>罗蒙/林锋</t>
         </is>
       </c>
     </row>
@@ -631,14 +631,14 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>崔倩男/谢卓珊</t>
+          <t>崔倩男/林小连</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr"/>
       <c r="F7" s="4" t="inlineStr"/>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t>唐英武/林小连</t>
+          <t>李祺祺/谢卓珊</t>
         </is>
       </c>
     </row>
@@ -658,14 +658,14 @@
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>林锋/李祺祺</t>
+          <t>陈顺星/唐英武</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr"/>
       <c r="F8" s="4" t="inlineStr"/>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t>陈顺星/高洁</t>
+          <t>罗琴荩/高洁</t>
         </is>
       </c>
     </row>
@@ -685,14 +685,14 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>严勇文/王小波</t>
+          <t>罗蒙/林锋</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr"/>
       <c r="F9" s="4" t="inlineStr"/>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t>罗蒙/罗琴荩</t>
+          <t>严勇文/卢志辉</t>
         </is>
       </c>
     </row>
@@ -712,14 +712,14 @@
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>崔倩男/唐英武</t>
+          <t>崔倩男/林小连</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr"/>
       <c r="F10" s="4" t="inlineStr"/>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t>谢卓珊/林小连</t>
+          <t>谢卓珊/高洁</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       <c r="F11" s="4" t="inlineStr"/>
       <c r="G11" s="4" t="inlineStr">
         <is>
-          <t>罗琴荩/高洁</t>
+          <t>罗琴荩/唐英武</t>
         </is>
       </c>
     </row>
@@ -766,14 +766,14 @@
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>卢志辉/江锐</t>
+          <t>陈顺星/陈小洪</t>
         </is>
       </c>
       <c r="E12" s="4" t="inlineStr"/>
       <c r="F12" s="4" t="inlineStr"/>
       <c r="G12" s="4" t="inlineStr">
         <is>
-          <t>严勇文/陈小洪</t>
+          <t>严勇文/程建兴</t>
         </is>
       </c>
     </row>
@@ -793,14 +793,14 @@
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>高洁/林小连</t>
+          <t>崔倩男/谢卓珊</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr"/>
       <c r="F13" s="4" t="inlineStr"/>
       <c r="G13" s="4" t="inlineStr">
         <is>
-          <t>崔倩男/谢卓珊</t>
+          <t>高洁/林小连</t>
         </is>
       </c>
     </row>
@@ -820,14 +820,14 @@
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>林锋/李祺祺</t>
+          <t>王小波/李祺祺</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr"/>
       <c r="F14" s="4" t="inlineStr"/>
       <c r="G14" s="4" t="inlineStr">
         <is>
-          <t>陈顺星/唐英武</t>
+          <t>林锋/唐英武</t>
         </is>
       </c>
     </row>
@@ -847,14 +847,14 @@
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>陈小洪/卢志辉</t>
+          <t>江锐/张欣欣</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr"/>
       <c r="F15" s="4" t="inlineStr"/>
       <c r="G15" s="4" t="inlineStr">
         <is>
-          <t>罗蒙/江锐</t>
+          <t>陈小洪/卢志辉</t>
         </is>
       </c>
     </row>
@@ -874,14 +874,14 @@
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>谢卓珊/高洁</t>
+          <t>李祺祺/谢卓珊</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr"/>
       <c r="F16" s="4" t="inlineStr"/>
       <c r="G16" s="4" t="inlineStr">
         <is>
-          <t>李祺祺/林小连</t>
+          <t>高洁/林小连</t>
         </is>
       </c>
     </row>
@@ -901,14 +901,14 @@
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>林锋/江锐</t>
+          <t>罗蒙/卢志辉</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr"/>
       <c r="F17" s="4" t="inlineStr"/>
       <c r="G17" s="4" t="inlineStr">
         <is>
-          <t>罗蒙/陈顺星</t>
+          <t>陈顺星/罗琴荩</t>
         </is>
       </c>
     </row>
@@ -928,14 +928,14 @@
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>王小波/罗琴荩</t>
+          <t>陈小洪/张欣欣</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr"/>
       <c r="F18" s="4" t="inlineStr"/>
       <c r="G18" s="4" t="inlineStr">
         <is>
-          <t>陈小洪/卢志辉</t>
+          <t>江锐/程建兴</t>
         </is>
       </c>
     </row>
@@ -955,14 +955,14 @@
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>高洁/林小连</t>
+          <t>谢卓珊/林小连</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr"/>
       <c r="F19" s="4" t="inlineStr"/>
       <c r="G19" s="4" t="inlineStr">
         <is>
-          <t>谢卓珊/唐英武</t>
+          <t>李祺祺/唐英武</t>
         </is>
       </c>
     </row>
@@ -982,14 +982,14 @@
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>罗蒙/陈顺星</t>
+          <t>林锋/程建兴</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr"/>
       <c r="F20" s="4" t="inlineStr"/>
       <c r="G20" s="4" t="inlineStr">
         <is>
-          <t>王小波/卢志辉</t>
+          <t>陈顺星/江锐</t>
         </is>
       </c>
     </row>
@@ -1009,14 +1009,14 @@
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>陈小洪/江锐</t>
+          <t>罗蒙/卢志辉</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr"/>
       <c r="F21" s="4" t="inlineStr"/>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>林锋/罗琴荩</t>
+          <t>王小波/罗琴荩</t>
         </is>
       </c>
     </row>
@@ -1036,7 +1036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="B4" s="7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7" t="n">
         <v>0</v>
@@ -1126,11 +1126,11 @@
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>林锋</t>
+          <t>张欣欣</t>
         </is>
       </c>
       <c r="B5" s="7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="7" t="n">
         <v>3</v>
@@ -1139,36 +1139,36 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>江锐</t>
+          <t>林锋</t>
         </is>
       </c>
       <c r="B6" s="7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>王小波</t>
+          <t>江锐</t>
         </is>
       </c>
       <c r="B7" s="7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="7" t="n">
         <v>4</v>
@@ -1177,32 +1177,32 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>罗琴荩</t>
+          <t>王小波</t>
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>罗蒙</t>
+          <t>程建兴</t>
         </is>
       </c>
       <c r="B9" s="7" t="n">
@@ -1221,83 +1221,83 @@
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>陈小洪</t>
+          <t>罗琴荩</t>
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>陈顺星</t>
+          <t>罗蒙</t>
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>唐英武</t>
+          <t>陈小洪</t>
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>崔倩男</t>
+          <t>陈顺星</t>
         </is>
       </c>
       <c r="B13" s="7" t="n">
         <v>4</v>
       </c>
       <c r="C13" s="7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>李祺祺</t>
+          <t>唐英武</t>
         </is>
       </c>
       <c r="B14" s="7" t="n">
@@ -1316,17 +1316,17 @@
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>林小连</t>
+          <t>崔倩男</t>
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="7" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" s="7" t="n">
         <v>0</v>
@@ -1335,39 +1335,77 @@
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>谢卓珊</t>
+          <t>李祺祺</t>
         </is>
       </c>
       <c r="B16" s="7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" s="7" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" s="7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
+          <t>林小连</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>谢卓珊</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
           <t>高洁</t>
         </is>
       </c>
-      <c r="B17" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E17" s="7" t="n">
-        <v>2</v>
+      <c r="B19" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
